--- a/CumulativeTestsByTypeByCounty/2022-03-04.xlsx
+++ b/CumulativeTestsByTypeByCounty/2022-03-04.xlsx
@@ -1074,16 +1074,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>84627</v>
+        <v>84686</v>
       </c>
       <c r="C2" s="4">
-        <v>2147</v>
+        <v>2153</v>
       </c>
       <c r="D2" s="4">
-        <v>46574</v>
+        <v>46594</v>
       </c>
       <c r="E2" s="4">
-        <v>133348</v>
+        <v>133433</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1091,16 +1091,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>6865</v>
+        <v>6867</v>
       </c>
       <c r="C3" s="4">
         <v>351</v>
       </c>
       <c r="D3" s="4">
-        <v>7615</v>
+        <v>7628</v>
       </c>
       <c r="E3" s="4">
-        <v>14831</v>
+        <v>14846</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1108,16 +1108,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>87398</v>
+        <v>87465</v>
       </c>
       <c r="C4" s="4">
-        <v>4725</v>
+        <v>4747</v>
       </c>
       <c r="D4" s="4">
-        <v>92352</v>
+        <v>92407</v>
       </c>
       <c r="E4" s="4">
-        <v>184475</v>
+        <v>184619</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1125,16 +1125,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>19559</v>
+        <v>19583</v>
       </c>
       <c r="C5" s="4">
-        <v>3011</v>
+        <v>3013</v>
       </c>
       <c r="D5" s="4">
-        <v>16691</v>
+        <v>16703</v>
       </c>
       <c r="E5" s="4">
-        <v>39261</v>
+        <v>39299</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1142,16 +1142,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>5217</v>
+        <v>5220</v>
       </c>
       <c r="C6" s="4">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D6" s="4">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="E6" s="4">
-        <v>8350</v>
+        <v>8357</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1159,16 +1159,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C7" s="4">
         <v>344</v>
       </c>
       <c r="D7" s="4">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="E7" s="4">
-        <v>3169</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1176,16 +1176,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>124378</v>
+        <v>124875</v>
       </c>
       <c r="C8" s="4">
         <v>1510</v>
       </c>
       <c r="D8" s="4">
-        <v>20559</v>
+        <v>20571</v>
       </c>
       <c r="E8" s="4">
-        <v>146447</v>
+        <v>146956</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1193,16 +1193,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>33920</v>
+        <v>33950</v>
       </c>
       <c r="C9" s="4">
-        <v>1931</v>
+        <v>1941</v>
       </c>
       <c r="D9" s="4">
-        <v>6695</v>
+        <v>6700</v>
       </c>
       <c r="E9" s="4">
-        <v>42546</v>
+        <v>42591</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1210,7 +1210,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="C10" s="4">
         <v>101</v>
@@ -1219,7 +1219,7 @@
         <v>2544</v>
       </c>
       <c r="E10" s="4">
-        <v>5570</v>
+        <v>5571</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1227,16 +1227,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>16605</v>
+        <v>16632</v>
       </c>
       <c r="C11" s="4">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="D11" s="4">
-        <v>10987</v>
+        <v>11000</v>
       </c>
       <c r="E11" s="4">
-        <v>28513</v>
+        <v>28557</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1244,16 +1244,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>111099</v>
+        <v>111225</v>
       </c>
       <c r="C12" s="4">
-        <v>2838</v>
+        <v>2853</v>
       </c>
       <c r="D12" s="4">
-        <v>50869</v>
+        <v>50904</v>
       </c>
       <c r="E12" s="4">
-        <v>164806</v>
+        <v>164982</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1261,16 +1261,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2411</v>
+        <v>2413</v>
       </c>
       <c r="C13" s="4">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D13" s="4">
-        <v>4766</v>
+        <v>4769</v>
       </c>
       <c r="E13" s="4">
-        <v>7813</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1278,16 +1278,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>57255</v>
+        <v>57293</v>
       </c>
       <c r="C14" s="4">
         <v>8610</v>
       </c>
       <c r="D14" s="4">
-        <v>27964</v>
+        <v>28029</v>
       </c>
       <c r="E14" s="4">
-        <v>93829</v>
+        <v>93932</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1295,16 +1295,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>467640</v>
+        <v>468135</v>
       </c>
       <c r="C15" s="4">
-        <v>16277</v>
+        <v>16291</v>
       </c>
       <c r="D15" s="4">
-        <v>133191</v>
+        <v>133297</v>
       </c>
       <c r="E15" s="4">
-        <v>617108</v>
+        <v>617723</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1312,16 +1312,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>5043484</v>
+        <v>5050443</v>
       </c>
       <c r="C16" s="4">
-        <v>82179</v>
+        <v>82483</v>
       </c>
       <c r="D16" s="4">
-        <v>776642</v>
+        <v>777511</v>
       </c>
       <c r="E16" s="4">
-        <v>5902305</v>
+        <v>5910437</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1329,16 +1329,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>10330</v>
+        <v>10341</v>
       </c>
       <c r="C17" s="4">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D17" s="4">
-        <v>6257</v>
+        <v>6258</v>
       </c>
       <c r="E17" s="4">
-        <v>17187</v>
+        <v>17203</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1363,16 +1363,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>13874</v>
+        <v>13883</v>
       </c>
       <c r="C19" s="4">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D19" s="4">
-        <v>10564</v>
+        <v>10566</v>
       </c>
       <c r="E19" s="4">
-        <v>25063</v>
+        <v>25076</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1380,16 +1380,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>98335</v>
+        <v>98394</v>
       </c>
       <c r="C20" s="4">
-        <v>10739</v>
+        <v>10741</v>
       </c>
       <c r="D20" s="4">
-        <v>43452</v>
+        <v>43484</v>
       </c>
       <c r="E20" s="4">
-        <v>152526</v>
+        <v>152619</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1397,16 +1397,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>671867</v>
+        <v>672580</v>
       </c>
       <c r="C21" s="4">
-        <v>27388</v>
+        <v>27418</v>
       </c>
       <c r="D21" s="4">
-        <v>146468</v>
+        <v>146620</v>
       </c>
       <c r="E21" s="4">
-        <v>845723</v>
+        <v>846618</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1414,16 +1414,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>510046</v>
+        <v>510564</v>
       </c>
       <c r="C22" s="4">
-        <v>13838</v>
+        <v>13884</v>
       </c>
       <c r="D22" s="4">
-        <v>59952</v>
+        <v>60006</v>
       </c>
       <c r="E22" s="4">
-        <v>583836</v>
+        <v>584454</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1431,16 +1431,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9618</v>
+        <v>9627</v>
       </c>
       <c r="C23" s="4">
         <v>180</v>
       </c>
       <c r="D23" s="4">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="E23" s="4">
-        <v>13470</v>
+        <v>13480</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1448,7 +1448,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C24" s="4">
         <v>142</v>
@@ -1457,7 +1457,7 @@
         <v>238</v>
       </c>
       <c r="E24" s="4">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1465,16 +1465,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>26595</v>
+        <v>26598</v>
       </c>
       <c r="C25" s="4">
         <v>1925</v>
       </c>
       <c r="D25" s="4">
-        <v>7285</v>
+        <v>7291</v>
       </c>
       <c r="E25" s="4">
-        <v>35805</v>
+        <v>35814</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1482,16 +1482,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>30180</v>
+        <v>30204</v>
       </c>
       <c r="C26" s="4">
         <v>1272</v>
       </c>
       <c r="D26" s="4">
-        <v>51762</v>
+        <v>51852</v>
       </c>
       <c r="E26" s="4">
-        <v>83214</v>
+        <v>83328</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1499,16 +1499,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>29623</v>
+        <v>29681</v>
       </c>
       <c r="C27" s="4">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D27" s="4">
-        <v>8086</v>
+        <v>8093</v>
       </c>
       <c r="E27" s="4">
-        <v>38595</v>
+        <v>38662</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1516,16 +1516,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>65233</v>
+        <v>65404</v>
       </c>
       <c r="C28" s="4">
-        <v>2691</v>
+        <v>2720</v>
       </c>
       <c r="D28" s="4">
-        <v>17085</v>
+        <v>17100</v>
       </c>
       <c r="E28" s="4">
-        <v>85009</v>
+        <v>85224</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1533,16 +1533,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>71168</v>
+        <v>71226</v>
       </c>
       <c r="C29" s="4">
-        <v>2356</v>
+        <v>2363</v>
       </c>
       <c r="D29" s="4">
-        <v>20915</v>
+        <v>20920</v>
       </c>
       <c r="E29" s="4">
-        <v>94439</v>
+        <v>94509</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1550,16 +1550,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>23218</v>
+        <v>23238</v>
       </c>
       <c r="C30" s="4">
-        <v>2533</v>
+        <v>2545</v>
       </c>
       <c r="D30" s="4">
-        <v>17778</v>
+        <v>17799</v>
       </c>
       <c r="E30" s="4">
-        <v>43529</v>
+        <v>43582</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>7771</v>
+        <v>7777</v>
       </c>
       <c r="C31" s="4">
         <v>357</v>
       </c>
       <c r="D31" s="4">
-        <v>13949</v>
+        <v>13961</v>
       </c>
       <c r="E31" s="4">
-        <v>22077</v>
+        <v>22095</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1584,16 +1584,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>509720</v>
+        <v>510214</v>
       </c>
       <c r="C32" s="4">
-        <v>12278</v>
+        <v>12292</v>
       </c>
       <c r="D32" s="4">
-        <v>184353</v>
+        <v>184678</v>
       </c>
       <c r="E32" s="4">
-        <v>706351</v>
+        <v>707184</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1601,16 +1601,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>10855</v>
+        <v>10888</v>
       </c>
       <c r="C33" s="4">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="D33" s="4">
-        <v>4573</v>
+        <v>4580</v>
       </c>
       <c r="E33" s="4">
-        <v>16009</v>
+        <v>16054</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1618,16 +1618,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>3583</v>
+        <v>3592</v>
       </c>
       <c r="C34" s="4">
         <v>1150</v>
       </c>
       <c r="D34" s="4">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="E34" s="4">
-        <v>6586</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1635,16 +1635,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>21964</v>
+        <v>21983</v>
       </c>
       <c r="C35" s="4">
         <v>3404</v>
       </c>
       <c r="D35" s="4">
-        <v>16598</v>
+        <v>16608</v>
       </c>
       <c r="E35" s="4">
-        <v>41966</v>
+        <v>41995</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1652,16 +1652,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>9554</v>
+        <v>9558</v>
       </c>
       <c r="C36" s="4">
         <v>453</v>
       </c>
       <c r="D36" s="4">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="E36" s="4">
-        <v>14473</v>
+        <v>14478</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1669,16 +1669,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>16208</v>
+        <v>16231</v>
       </c>
       <c r="C37" s="4">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D37" s="4">
-        <v>4294</v>
+        <v>4300</v>
       </c>
       <c r="E37" s="4">
-        <v>21436</v>
+        <v>21466</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1686,16 +1686,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>41220</v>
+        <v>41262</v>
       </c>
       <c r="C38" s="4">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="D38" s="4">
-        <v>37045</v>
+        <v>37083</v>
       </c>
       <c r="E38" s="4">
-        <v>79631</v>
+        <v>79715</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1703,16 +1703,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>8505</v>
+        <v>8514</v>
       </c>
       <c r="C39" s="4">
         <v>479</v>
       </c>
       <c r="D39" s="4">
-        <v>6917</v>
+        <v>6918</v>
       </c>
       <c r="E39" s="4">
-        <v>15901</v>
+        <v>15911</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1720,16 +1720,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>7429</v>
+        <v>7433</v>
       </c>
       <c r="C40" s="4">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="D40" s="4">
-        <v>6940</v>
+        <v>6943</v>
       </c>
       <c r="E40" s="4">
-        <v>15117</v>
+        <v>15128</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1737,16 +1737,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C41" s="4">
         <v>30</v>
       </c>
       <c r="D41" s="4">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E41" s="4">
-        <v>2630</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1760,10 +1760,10 @@
         <v>75</v>
       </c>
       <c r="D42" s="4">
-        <v>4052</v>
+        <v>4057</v>
       </c>
       <c r="E42" s="4">
-        <v>7243</v>
+        <v>7248</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1771,16 +1771,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>5045</v>
+        <v>5047</v>
       </c>
       <c r="C43" s="4">
         <v>185</v>
       </c>
       <c r="D43" s="4">
-        <v>5903</v>
+        <v>5913</v>
       </c>
       <c r="E43" s="4">
-        <v>11133</v>
+        <v>11145</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1788,16 +1788,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1850607</v>
+        <v>1852626</v>
       </c>
       <c r="C44" s="4">
-        <v>119074</v>
+        <v>119332</v>
       </c>
       <c r="D44" s="4">
-        <v>405093</v>
+        <v>406156</v>
       </c>
       <c r="E44" s="4">
-        <v>2374774</v>
+        <v>2378114</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1805,7 +1805,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>2249</v>
+        <v>2252</v>
       </c>
       <c r="C45" s="4">
         <v>146</v>
@@ -1814,7 +1814,7 @@
         <v>3897</v>
       </c>
       <c r="E45" s="4">
-        <v>6292</v>
+        <v>6295</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1822,16 +1822,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>21811</v>
+        <v>21832</v>
       </c>
       <c r="C46" s="4">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="D46" s="4">
-        <v>12903</v>
+        <v>12963</v>
       </c>
       <c r="E46" s="4">
-        <v>35969</v>
+        <v>36056</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1839,16 +1839,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>221442</v>
+        <v>221677</v>
       </c>
       <c r="C47" s="4">
-        <v>14016</v>
+        <v>14116</v>
       </c>
       <c r="D47" s="4">
-        <v>66558</v>
+        <v>66690</v>
       </c>
       <c r="E47" s="4">
-        <v>302016</v>
+        <v>302483</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1856,16 +1856,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>12976</v>
+        <v>12987</v>
       </c>
       <c r="C48" s="4">
         <v>390</v>
       </c>
       <c r="D48" s="4">
-        <v>7996</v>
+        <v>7997</v>
       </c>
       <c r="E48" s="4">
-        <v>21362</v>
+        <v>21374</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1873,16 +1873,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>2639</v>
+        <v>2641</v>
       </c>
       <c r="C49" s="4">
         <v>40</v>
       </c>
       <c r="D49" s="4">
-        <v>5613</v>
+        <v>5619</v>
       </c>
       <c r="E49" s="4">
-        <v>8292</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1890,16 +1890,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>35692</v>
+        <v>35714</v>
       </c>
       <c r="C50" s="4">
-        <v>2530</v>
+        <v>2541</v>
       </c>
       <c r="D50" s="4">
-        <v>15858</v>
+        <v>15866</v>
       </c>
       <c r="E50" s="4">
-        <v>54080</v>
+        <v>54121</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1907,16 +1907,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>149913</v>
+        <v>149995</v>
       </c>
       <c r="C51" s="4">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="D51" s="4">
-        <v>36205</v>
+        <v>36230</v>
       </c>
       <c r="E51" s="4">
-        <v>188635</v>
+        <v>188744</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1924,7 +1924,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C52" s="4">
         <v>78</v>
@@ -1933,7 +1933,7 @@
         <v>1107</v>
       </c>
       <c r="E52" s="4">
-        <v>2701</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1944,13 +1944,13 @@
         <v>5107</v>
       </c>
       <c r="C53" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D53" s="4">
-        <v>5225</v>
+        <v>5226</v>
       </c>
       <c r="E53" s="4">
-        <v>10430</v>
+        <v>10432</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1964,10 +1964,10 @@
         <v>27</v>
       </c>
       <c r="D54" s="4">
-        <v>6014</v>
+        <v>6016</v>
       </c>
       <c r="E54" s="4">
-        <v>7321</v>
+        <v>7323</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1975,16 +1975,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>4207</v>
+        <v>4212</v>
       </c>
       <c r="C55" s="4">
         <v>80</v>
       </c>
       <c r="D55" s="4">
-        <v>4434</v>
+        <v>4438</v>
       </c>
       <c r="E55" s="4">
-        <v>8721</v>
+        <v>8730</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1992,16 +1992,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>3119</v>
+        <v>3121</v>
       </c>
       <c r="C56" s="4">
         <v>42</v>
       </c>
       <c r="D56" s="4">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E56" s="4">
-        <v>3635</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2009,7 +2009,7 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>4443</v>
+        <v>4450</v>
       </c>
       <c r="C57" s="4">
         <v>609</v>
@@ -2018,7 +2018,7 @@
         <v>4345</v>
       </c>
       <c r="E57" s="4">
-        <v>9397</v>
+        <v>9404</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2026,16 +2026,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>4419597</v>
+        <v>4422988</v>
       </c>
       <c r="C58" s="4">
-        <v>176219</v>
+        <v>176592</v>
       </c>
       <c r="D58" s="4">
-        <v>775066</v>
+        <v>776180</v>
       </c>
       <c r="E58" s="4">
-        <v>5370882</v>
+        <v>5375760</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2043,16 +2043,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>12327</v>
+        <v>12329</v>
       </c>
       <c r="C59" s="4">
         <v>644</v>
       </c>
       <c r="D59" s="4">
-        <v>7294</v>
+        <v>7298</v>
       </c>
       <c r="E59" s="4">
-        <v>20265</v>
+        <v>20271</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2060,16 +2060,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>17897</v>
+        <v>17906</v>
       </c>
       <c r="C60" s="4">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D60" s="4">
-        <v>9033</v>
+        <v>9035</v>
       </c>
       <c r="E60" s="4">
-        <v>27600</v>
+        <v>27613</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2077,16 +2077,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>9352</v>
+        <v>9360</v>
       </c>
       <c r="C61" s="4">
         <v>1304</v>
       </c>
       <c r="D61" s="4">
-        <v>8388</v>
+        <v>8408</v>
       </c>
       <c r="E61" s="4">
-        <v>19044</v>
+        <v>19072</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2094,16 +2094,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>3490</v>
+        <v>3492</v>
       </c>
       <c r="C62" s="4">
         <v>263</v>
       </c>
       <c r="D62" s="4">
-        <v>3914</v>
+        <v>3917</v>
       </c>
       <c r="E62" s="4">
-        <v>7667</v>
+        <v>7672</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2111,16 +2111,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>1083879</v>
+        <v>1084732</v>
       </c>
       <c r="C63" s="4">
-        <v>85061</v>
+        <v>85173</v>
       </c>
       <c r="D63" s="4">
-        <v>320401</v>
+        <v>320921</v>
       </c>
       <c r="E63" s="4">
-        <v>1489341</v>
+        <v>1490826</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2134,10 +2134,10 @@
         <v>22</v>
       </c>
       <c r="D64" s="4">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="E64" s="4">
-        <v>2262</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2145,16 +2145,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>36632</v>
+        <v>36755</v>
       </c>
       <c r="C65" s="4">
         <v>137</v>
       </c>
       <c r="D65" s="4">
-        <v>47025</v>
+        <v>47027</v>
       </c>
       <c r="E65" s="4">
-        <v>83794</v>
+        <v>83919</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2162,7 +2162,7 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>2353</v>
+        <v>2357</v>
       </c>
       <c r="C66" s="4">
         <v>507</v>
@@ -2171,7 +2171,7 @@
         <v>2566</v>
       </c>
       <c r="E66" s="4">
-        <v>5426</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2179,16 +2179,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>27205</v>
+        <v>27246</v>
       </c>
       <c r="C67" s="4">
         <v>3537</v>
       </c>
       <c r="D67" s="4">
-        <v>13960</v>
+        <v>13965</v>
       </c>
       <c r="E67" s="4">
-        <v>44702</v>
+        <v>44748</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2196,16 +2196,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>8484</v>
+        <v>8493</v>
       </c>
       <c r="C68" s="4">
         <v>572</v>
       </c>
       <c r="D68" s="4">
-        <v>10298</v>
+        <v>10310</v>
       </c>
       <c r="E68" s="4">
-        <v>19354</v>
+        <v>19375</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2213,16 +2213,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>108255</v>
+        <v>108346</v>
       </c>
       <c r="C69" s="4">
-        <v>6672</v>
+        <v>6685</v>
       </c>
       <c r="D69" s="4">
-        <v>83205</v>
+        <v>83382</v>
       </c>
       <c r="E69" s="4">
-        <v>198132</v>
+        <v>198413</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2236,10 +2236,10 @@
         <v>46</v>
       </c>
       <c r="D70" s="4">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="E70" s="4">
-        <v>2701</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2247,16 +2247,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1494980</v>
+        <v>1496568</v>
       </c>
       <c r="C71" s="4">
-        <v>24083</v>
+        <v>24102</v>
       </c>
       <c r="D71" s="4">
-        <v>684715</v>
+        <v>685265</v>
       </c>
       <c r="E71" s="4">
-        <v>2203778</v>
+        <v>2205935</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2264,16 +2264,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>290956</v>
+        <v>291141</v>
       </c>
       <c r="C72" s="4">
-        <v>10100</v>
+        <v>10127</v>
       </c>
       <c r="D72" s="4">
-        <v>68959</v>
+        <v>69124</v>
       </c>
       <c r="E72" s="4">
-        <v>370015</v>
+        <v>370392</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2281,16 +2281,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>37655</v>
+        <v>37725</v>
       </c>
       <c r="C73" s="4">
-        <v>2224</v>
+        <v>2240</v>
       </c>
       <c r="D73" s="4">
-        <v>17426</v>
+        <v>17441</v>
       </c>
       <c r="E73" s="4">
-        <v>57305</v>
+        <v>57406</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2298,16 +2298,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>19998</v>
+        <v>20010</v>
       </c>
       <c r="C74" s="4">
         <v>501</v>
       </c>
       <c r="D74" s="4">
-        <v>11988</v>
+        <v>11992</v>
       </c>
       <c r="E74" s="4">
-        <v>32487</v>
+        <v>32503</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2315,16 +2315,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>48632</v>
+        <v>48679</v>
       </c>
       <c r="C75" s="4">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="D75" s="4">
-        <v>14040</v>
+        <v>14058</v>
       </c>
       <c r="E75" s="4">
-        <v>63884</v>
+        <v>63952</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2332,16 +2332,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>26286</v>
+        <v>26307</v>
       </c>
       <c r="C76" s="4">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="D76" s="4">
-        <v>9204</v>
+        <v>9217</v>
       </c>
       <c r="E76" s="4">
-        <v>36583</v>
+        <v>36625</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2349,16 +2349,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="C77" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D77" s="4">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E77" s="4">
-        <v>2865</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2366,7 +2366,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>5580</v>
+        <v>5584</v>
       </c>
       <c r="C78" s="4">
         <v>176</v>
@@ -2375,7 +2375,7 @@
         <v>1041</v>
       </c>
       <c r="E78" s="4">
-        <v>6797</v>
+        <v>6801</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2383,7 +2383,7 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C79" s="4">
         <v>166</v>
@@ -2392,7 +2392,7 @@
         <v>2477</v>
       </c>
       <c r="E79" s="4">
-        <v>3423</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2400,16 +2400,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1388188</v>
+        <v>1389893</v>
       </c>
       <c r="C80" s="4">
-        <v>53234</v>
+        <v>53312</v>
       </c>
       <c r="D80" s="4">
-        <v>207355</v>
+        <v>207686</v>
       </c>
       <c r="E80" s="4">
-        <v>1648777</v>
+        <v>1650891</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2417,16 +2417,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>8133</v>
+        <v>8140</v>
       </c>
       <c r="C81" s="4">
         <v>632</v>
       </c>
       <c r="D81" s="4">
-        <v>2212</v>
+        <v>2217</v>
       </c>
       <c r="E81" s="4">
-        <v>10977</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2434,16 +2434,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>26561</v>
+        <v>26570</v>
       </c>
       <c r="C82" s="4">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="D82" s="4">
-        <v>23867</v>
+        <v>23875</v>
       </c>
       <c r="E82" s="4">
-        <v>51304</v>
+        <v>51325</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2451,16 +2451,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>38260</v>
+        <v>38299</v>
       </c>
       <c r="C83" s="4">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D83" s="4">
-        <v>10366</v>
+        <v>10367</v>
       </c>
       <c r="E83" s="4">
-        <v>49211</v>
+        <v>49253</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2468,16 +2468,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>5759</v>
+        <v>5762</v>
       </c>
       <c r="C84" s="4">
         <v>315</v>
       </c>
       <c r="D84" s="4">
-        <v>3080</v>
+        <v>3083</v>
       </c>
       <c r="E84" s="4">
-        <v>9154</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2485,16 +2485,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>716410</v>
+        <v>717122</v>
       </c>
       <c r="C85" s="4">
-        <v>28565</v>
+        <v>28593</v>
       </c>
       <c r="D85" s="4">
-        <v>125632</v>
+        <v>125907</v>
       </c>
       <c r="E85" s="4">
-        <v>870607</v>
+        <v>871622</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2502,16 +2502,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>4783</v>
+        <v>4805</v>
       </c>
       <c r="C86" s="4">
         <v>77</v>
       </c>
       <c r="D86" s="4">
-        <v>2200</v>
+        <v>2205</v>
       </c>
       <c r="E86" s="4">
-        <v>7060</v>
+        <v>7087</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2519,16 +2519,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>24101</v>
+        <v>24119</v>
       </c>
       <c r="C87" s="4">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="D87" s="4">
-        <v>14183</v>
+        <v>14189</v>
       </c>
       <c r="E87" s="4">
-        <v>39446</v>
+        <v>39472</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2536,16 +2536,16 @@
         <v>91</v>
       </c>
       <c r="B88" s="4">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C88" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D88" s="4">
         <v>290</v>
       </c>
       <c r="E88" s="4">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2553,7 +2553,7 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>5452</v>
+        <v>5458</v>
       </c>
       <c r="C89" s="4">
         <v>406</v>
@@ -2562,7 +2562,7 @@
         <v>4160</v>
       </c>
       <c r="E89" s="4">
-        <v>10018</v>
+        <v>10024</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2570,16 +2570,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>18831</v>
+        <v>18845</v>
       </c>
       <c r="C90" s="4">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D90" s="4">
-        <v>15484</v>
+        <v>15491</v>
       </c>
       <c r="E90" s="4">
-        <v>34857</v>
+        <v>34882</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2587,16 +2587,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>14772</v>
+        <v>14775</v>
       </c>
       <c r="C91" s="4">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="D91" s="4">
-        <v>14097</v>
+        <v>14122</v>
       </c>
       <c r="E91" s="4">
-        <v>30252</v>
+        <v>30282</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2604,16 +2604,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>193874</v>
+        <v>194065</v>
       </c>
       <c r="C92" s="4">
-        <v>6649</v>
+        <v>6664</v>
       </c>
       <c r="D92" s="4">
-        <v>62363</v>
+        <v>62470</v>
       </c>
       <c r="E92" s="4">
-        <v>262886</v>
+        <v>263199</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2621,16 +2621,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>91606</v>
+        <v>91671</v>
       </c>
       <c r="C93" s="4">
-        <v>12491</v>
+        <v>12521</v>
       </c>
       <c r="D93" s="4">
-        <v>52804</v>
+        <v>52879</v>
       </c>
       <c r="E93" s="4">
-        <v>156901</v>
+        <v>157071</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2638,16 +2638,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>62464</v>
+        <v>62502</v>
       </c>
       <c r="C94" s="4">
         <v>1562</v>
       </c>
       <c r="D94" s="4">
-        <v>16606</v>
+        <v>16613</v>
       </c>
       <c r="E94" s="4">
-        <v>80632</v>
+        <v>80677</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2655,16 +2655,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>172672</v>
+        <v>172882</v>
       </c>
       <c r="C95" s="4">
-        <v>6755</v>
+        <v>6787</v>
       </c>
       <c r="D95" s="4">
-        <v>58197</v>
+        <v>58267</v>
       </c>
       <c r="E95" s="4">
-        <v>237624</v>
+        <v>237936</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2672,16 +2672,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>35331</v>
+        <v>35353</v>
       </c>
       <c r="C96" s="4">
         <v>559</v>
       </c>
       <c r="D96" s="4">
-        <v>10005</v>
+        <v>10011</v>
       </c>
       <c r="E96" s="4">
-        <v>45895</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2689,7 +2689,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>2811</v>
+        <v>2814</v>
       </c>
       <c r="C97" s="4">
         <v>81</v>
@@ -2698,7 +2698,7 @@
         <v>3780</v>
       </c>
       <c r="E97" s="4">
-        <v>6672</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2706,16 +2706,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>12552</v>
+        <v>12567</v>
       </c>
       <c r="C98" s="4">
         <v>479</v>
       </c>
       <c r="D98" s="4">
-        <v>5700</v>
+        <v>5717</v>
       </c>
       <c r="E98" s="4">
-        <v>18731</v>
+        <v>18763</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2723,16 +2723,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="C99" s="4">
         <v>874</v>
       </c>
       <c r="D99" s="4">
-        <v>5008</v>
+        <v>5010</v>
       </c>
       <c r="E99" s="4">
-        <v>8270</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2740,7 +2740,7 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="C100" s="4">
         <v>332</v>
@@ -2749,7 +2749,7 @@
         <v>4166</v>
       </c>
       <c r="E100" s="4">
-        <v>7328</v>
+        <v>7329</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2757,16 +2757,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>48786</v>
+        <v>48824</v>
       </c>
       <c r="C101" s="4">
-        <v>4724</v>
+        <v>4742</v>
       </c>
       <c r="D101" s="4">
-        <v>32313</v>
+        <v>32335</v>
       </c>
       <c r="E101" s="4">
-        <v>85823</v>
+        <v>85901</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2774,16 +2774,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>8627750</v>
+        <v>8640877</v>
       </c>
       <c r="C102" s="4">
-        <v>287550</v>
+        <v>287856</v>
       </c>
       <c r="D102" s="4">
-        <v>1283195</v>
+        <v>1285383</v>
       </c>
       <c r="E102" s="4">
-        <v>10198495</v>
+        <v>10214116</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2791,16 +2791,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>91913</v>
+        <v>91964</v>
       </c>
       <c r="C103" s="4">
-        <v>9545</v>
+        <v>9558</v>
       </c>
       <c r="D103" s="4">
-        <v>39533</v>
+        <v>39637</v>
       </c>
       <c r="E103" s="4">
-        <v>140991</v>
+        <v>141159</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2831,10 +2831,10 @@
         <v>48</v>
       </c>
       <c r="D105" s="4">
-        <v>4389</v>
+        <v>4391</v>
       </c>
       <c r="E105" s="4">
-        <v>6518</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2842,16 +2842,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>521335</v>
+        <v>521754</v>
       </c>
       <c r="C106" s="4">
-        <v>18508</v>
+        <v>18620</v>
       </c>
       <c r="D106" s="4">
-        <v>71841</v>
+        <v>71894</v>
       </c>
       <c r="E106" s="4">
-        <v>611684</v>
+        <v>612268</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2859,16 +2859,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="C107" s="4">
         <v>550</v>
       </c>
       <c r="D107" s="4">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="E107" s="4">
-        <v>2675</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2876,16 +2876,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>56712</v>
+        <v>56763</v>
       </c>
       <c r="C108" s="4">
-        <v>3427</v>
+        <v>3429</v>
       </c>
       <c r="D108" s="4">
-        <v>32953</v>
+        <v>32982</v>
       </c>
       <c r="E108" s="4">
-        <v>93092</v>
+        <v>93174</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2893,16 +2893,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>994656</v>
+        <v>995686</v>
       </c>
       <c r="C109" s="4">
-        <v>23775</v>
+        <v>23821</v>
       </c>
       <c r="D109" s="4">
-        <v>466651</v>
+        <v>467673</v>
       </c>
       <c r="E109" s="4">
-        <v>1485082</v>
+        <v>1487180</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2910,16 +2910,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>45860</v>
+        <v>45891</v>
       </c>
       <c r="C110" s="4">
         <v>1360</v>
       </c>
       <c r="D110" s="4">
-        <v>22645</v>
+        <v>22675</v>
       </c>
       <c r="E110" s="4">
-        <v>69865</v>
+        <v>69926</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2927,16 +2927,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>21512</v>
+        <v>21533</v>
       </c>
       <c r="C111" s="4">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D111" s="4">
-        <v>9628</v>
+        <v>9632</v>
       </c>
       <c r="E111" s="4">
-        <v>31424</v>
+        <v>31450</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2944,16 +2944,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>62311</v>
+        <v>62352</v>
       </c>
       <c r="C112" s="4">
-        <v>3403</v>
+        <v>3411</v>
       </c>
       <c r="D112" s="4">
-        <v>50405</v>
+        <v>50435</v>
       </c>
       <c r="E112" s="4">
-        <v>116119</v>
+        <v>116198</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2961,16 +2961,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>30979</v>
+        <v>31012</v>
       </c>
       <c r="C113" s="4">
-        <v>2184</v>
+        <v>2188</v>
       </c>
       <c r="D113" s="4">
-        <v>17162</v>
+        <v>17178</v>
       </c>
       <c r="E113" s="4">
-        <v>50325</v>
+        <v>50378</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2978,16 +2978,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>22369</v>
+        <v>22387</v>
       </c>
       <c r="C114" s="4">
         <v>740</v>
       </c>
       <c r="D114" s="4">
-        <v>13749</v>
+        <v>13762</v>
       </c>
       <c r="E114" s="4">
-        <v>36858</v>
+        <v>36889</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2995,16 +2995,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>24542</v>
+        <v>24549</v>
       </c>
       <c r="C115" s="4">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D115" s="4">
-        <v>26740</v>
+        <v>26827</v>
       </c>
       <c r="E115" s="4">
-        <v>52269</v>
+        <v>52364</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3012,16 +3012,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3693</v>
+        <v>3696</v>
       </c>
       <c r="C116" s="4">
         <v>55</v>
       </c>
       <c r="D116" s="4">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="E116" s="4">
-        <v>5659</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3029,16 +3029,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>148517</v>
+        <v>148700</v>
       </c>
       <c r="C117" s="4">
-        <v>5400</v>
+        <v>5416</v>
       </c>
       <c r="D117" s="4">
-        <v>55474</v>
+        <v>55531</v>
       </c>
       <c r="E117" s="4">
-        <v>209391</v>
+        <v>209647</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3046,16 +3046,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>15002</v>
+        <v>15021</v>
       </c>
       <c r="C118" s="4">
         <v>1902</v>
       </c>
       <c r="D118" s="4">
-        <v>11661</v>
+        <v>11669</v>
       </c>
       <c r="E118" s="4">
-        <v>28565</v>
+        <v>28592</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3063,7 +3063,7 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C119" s="4">
         <v>27</v>
@@ -3072,7 +3072,7 @@
         <v>1069</v>
       </c>
       <c r="E119" s="4">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3080,7 +3080,7 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>5730</v>
+        <v>5736</v>
       </c>
       <c r="C120" s="4">
         <v>305</v>
@@ -3089,7 +3089,7 @@
         <v>2242</v>
       </c>
       <c r="E120" s="4">
-        <v>8277</v>
+        <v>8283</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3097,16 +3097,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>12333</v>
+        <v>12344</v>
       </c>
       <c r="C121" s="4">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D121" s="4">
-        <v>6572</v>
+        <v>6577</v>
       </c>
       <c r="E121" s="4">
-        <v>19549</v>
+        <v>19569</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3114,16 +3114,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>31554</v>
+        <v>31576</v>
       </c>
       <c r="C122" s="4">
-        <v>3198</v>
+        <v>3204</v>
       </c>
       <c r="D122" s="4">
-        <v>20131</v>
+        <v>20236</v>
       </c>
       <c r="E122" s="4">
-        <v>54883</v>
+        <v>55016</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3131,7 +3131,7 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="C123" s="4">
         <v>61</v>
@@ -3140,7 +3140,7 @@
         <v>410</v>
       </c>
       <c r="E123" s="4">
-        <v>2524</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3148,16 +3148,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>262159</v>
+        <v>262333</v>
       </c>
       <c r="C124" s="4">
-        <v>17135</v>
+        <v>17148</v>
       </c>
       <c r="D124" s="4">
-        <v>121471</v>
+        <v>121618</v>
       </c>
       <c r="E124" s="4">
-        <v>400765</v>
+        <v>401099</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3165,16 +3165,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>15412</v>
+        <v>15416</v>
       </c>
       <c r="C125" s="4">
         <v>783</v>
       </c>
       <c r="D125" s="4">
-        <v>18156</v>
+        <v>18157</v>
       </c>
       <c r="E125" s="4">
-        <v>34351</v>
+        <v>34356</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3182,16 +3182,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>93622</v>
+        <v>93928</v>
       </c>
       <c r="C126" s="4">
-        <v>11473</v>
+        <v>11483</v>
       </c>
       <c r="D126" s="4">
-        <v>41235</v>
+        <v>41273</v>
       </c>
       <c r="E126" s="4">
-        <v>146330</v>
+        <v>146684</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3199,16 +3199,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>221138</v>
+        <v>221466</v>
       </c>
       <c r="C127" s="4">
-        <v>9642</v>
+        <v>9658</v>
       </c>
       <c r="D127" s="4">
-        <v>59715</v>
+        <v>59789</v>
       </c>
       <c r="E127" s="4">
-        <v>290495</v>
+        <v>290913</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3216,16 +3216,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>12674</v>
+        <v>12676</v>
       </c>
       <c r="C128" s="4">
         <v>250</v>
       </c>
       <c r="D128" s="4">
-        <v>11367</v>
+        <v>11377</v>
       </c>
       <c r="E128" s="4">
-        <v>24291</v>
+        <v>24303</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3233,16 +3233,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>23829</v>
+        <v>23856</v>
       </c>
       <c r="C129" s="4">
         <v>606</v>
       </c>
       <c r="D129" s="4">
-        <v>16146</v>
+        <v>16149</v>
       </c>
       <c r="E129" s="4">
-        <v>40581</v>
+        <v>40611</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3250,16 +3250,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>199417</v>
+        <v>199655</v>
       </c>
       <c r="C130" s="4">
-        <v>7651</v>
+        <v>7674</v>
       </c>
       <c r="D130" s="4">
-        <v>63076</v>
+        <v>63147</v>
       </c>
       <c r="E130" s="4">
-        <v>270144</v>
+        <v>270476</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3267,16 +3267,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>49284</v>
+        <v>49355</v>
       </c>
       <c r="C131" s="4">
-        <v>3220</v>
+        <v>3232</v>
       </c>
       <c r="D131" s="4">
-        <v>26215</v>
+        <v>26241</v>
       </c>
       <c r="E131" s="4">
-        <v>78719</v>
+        <v>78828</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3301,16 +3301,16 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C133" s="4">
         <v>0</v>
       </c>
       <c r="D133" s="4">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E133" s="4">
-        <v>2322</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3318,16 +3318,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>50360</v>
+        <v>50398</v>
       </c>
       <c r="C134" s="4">
-        <v>2352</v>
+        <v>2377</v>
       </c>
       <c r="D134" s="4">
-        <v>57920</v>
+        <v>57948</v>
       </c>
       <c r="E134" s="4">
-        <v>110632</v>
+        <v>110723</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3341,10 +3341,10 @@
         <v>76</v>
       </c>
       <c r="D135" s="4">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="E135" s="4">
-        <v>4405</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3386,16 +3386,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>45503</v>
+        <v>45525</v>
       </c>
       <c r="C138" s="4">
-        <v>5577</v>
+        <v>5579</v>
       </c>
       <c r="D138" s="4">
-        <v>20838</v>
+        <v>20996</v>
       </c>
       <c r="E138" s="4">
-        <v>71918</v>
+        <v>72100</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3403,16 +3403,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="C139" s="4">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D139" s="4">
-        <v>7599</v>
+        <v>7601</v>
       </c>
       <c r="E139" s="4">
-        <v>8994</v>
+        <v>9003</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3420,16 +3420,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>14460</v>
+        <v>14495</v>
       </c>
       <c r="C140" s="4">
         <v>331</v>
       </c>
       <c r="D140" s="4">
-        <v>7819</v>
+        <v>7842</v>
       </c>
       <c r="E140" s="4">
-        <v>22610</v>
+        <v>22668</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3437,16 +3437,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>33892</v>
+        <v>33917</v>
       </c>
       <c r="C141" s="4">
-        <v>3089</v>
+        <v>3097</v>
       </c>
       <c r="D141" s="4">
-        <v>25565</v>
+        <v>25589</v>
       </c>
       <c r="E141" s="4">
-        <v>62546</v>
+        <v>62603</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3454,16 +3454,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>10281</v>
+        <v>10291</v>
       </c>
       <c r="C142" s="4">
         <v>190</v>
       </c>
       <c r="D142" s="4">
-        <v>12867</v>
+        <v>12868</v>
       </c>
       <c r="E142" s="4">
-        <v>23338</v>
+        <v>23349</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3471,16 +3471,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>33034</v>
+        <v>33175</v>
       </c>
       <c r="C143" s="4">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="D143" s="4">
-        <v>9304</v>
+        <v>9320</v>
       </c>
       <c r="E143" s="4">
-        <v>43143</v>
+        <v>43312</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3488,16 +3488,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>20852</v>
+        <v>20869</v>
       </c>
       <c r="C144" s="4">
-        <v>1435</v>
+        <v>1442</v>
       </c>
       <c r="D144" s="4">
-        <v>18862</v>
+        <v>18871</v>
       </c>
       <c r="E144" s="4">
-        <v>41149</v>
+        <v>41182</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3505,16 +3505,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>14605</v>
+        <v>14625</v>
       </c>
       <c r="C145" s="4">
         <v>526</v>
       </c>
       <c r="D145" s="4">
-        <v>8288</v>
+        <v>8291</v>
       </c>
       <c r="E145" s="4">
-        <v>23419</v>
+        <v>23442</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3522,16 +3522,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>18897</v>
+        <v>18930</v>
       </c>
       <c r="C146" s="4">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="D146" s="4">
-        <v>8687</v>
+        <v>8688</v>
       </c>
       <c r="E146" s="4">
-        <v>28477</v>
+        <v>28514</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3539,16 +3539,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>102811</v>
+        <v>102895</v>
       </c>
       <c r="C147" s="4">
-        <v>4859</v>
+        <v>4861</v>
       </c>
       <c r="D147" s="4">
-        <v>31781</v>
+        <v>31816</v>
       </c>
       <c r="E147" s="4">
-        <v>139451</v>
+        <v>139572</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3556,16 +3556,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>42741</v>
+        <v>42750</v>
       </c>
       <c r="C148" s="4">
         <v>817</v>
       </c>
       <c r="D148" s="4">
-        <v>43227</v>
+        <v>43237</v>
       </c>
       <c r="E148" s="4">
-        <v>86785</v>
+        <v>86804</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3573,7 +3573,7 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C149" s="4">
         <v>330</v>
@@ -3582,7 +3582,7 @@
         <v>1270</v>
       </c>
       <c r="E149" s="4">
-        <v>2271</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3590,16 +3590,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>10331</v>
+        <v>10337</v>
       </c>
       <c r="C150" s="4">
         <v>1382</v>
       </c>
       <c r="D150" s="4">
-        <v>9108</v>
+        <v>9116</v>
       </c>
       <c r="E150" s="4">
-        <v>20821</v>
+        <v>20835</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3607,16 +3607,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>20507</v>
+        <v>20528</v>
       </c>
       <c r="C151" s="4">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D151" s="4">
-        <v>6432</v>
+        <v>6443</v>
       </c>
       <c r="E151" s="4">
-        <v>27652</v>
+        <v>27686</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3624,16 +3624,16 @@
         <v>155</v>
       </c>
       <c r="B152" s="4">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C152" s="4">
         <v>5</v>
       </c>
       <c r="D152" s="4">
-        <v>12774</v>
+        <v>12868</v>
       </c>
       <c r="E152" s="4">
-        <v>13204</v>
+        <v>13302</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3641,16 +3641,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>385756</v>
+        <v>385964</v>
       </c>
       <c r="C153" s="4">
-        <v>13100</v>
+        <v>13156</v>
       </c>
       <c r="D153" s="4">
-        <v>211795</v>
+        <v>212012</v>
       </c>
       <c r="E153" s="4">
-        <v>610651</v>
+        <v>611132</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3658,16 +3658,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>4866</v>
+        <v>4887</v>
       </c>
       <c r="C154" s="4">
         <v>198</v>
       </c>
       <c r="D154" s="4">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="E154" s="4">
-        <v>9515</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3675,16 +3675,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>20987</v>
+        <v>20999</v>
       </c>
       <c r="C155" s="4">
         <v>424</v>
       </c>
       <c r="D155" s="4">
-        <v>7498</v>
+        <v>7509</v>
       </c>
       <c r="E155" s="4">
-        <v>28909</v>
+        <v>28932</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3692,16 +3692,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>4569</v>
+        <v>4572</v>
       </c>
       <c r="C156" s="4">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D156" s="4">
-        <v>4358</v>
+        <v>4362</v>
       </c>
       <c r="E156" s="4">
-        <v>9812</v>
+        <v>9821</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3709,16 +3709,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="C157" s="4">
         <v>289</v>
       </c>
       <c r="D157" s="4">
-        <v>1607</v>
+        <v>1615</v>
       </c>
       <c r="E157" s="4">
-        <v>3891</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3732,10 +3732,10 @@
         <v>128</v>
       </c>
       <c r="D158" s="4">
-        <v>2418</v>
+        <v>2424</v>
       </c>
       <c r="E158" s="4">
-        <v>5282</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3743,16 +3743,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>53628</v>
+        <v>53662</v>
       </c>
       <c r="C159" s="4">
         <v>2035</v>
       </c>
       <c r="D159" s="4">
-        <v>8898</v>
+        <v>8907</v>
       </c>
       <c r="E159" s="4">
-        <v>64561</v>
+        <v>64604</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3760,16 +3760,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>109461</v>
+        <v>109518</v>
       </c>
       <c r="C160" s="4">
         <v>544</v>
       </c>
       <c r="D160" s="4">
-        <v>32134</v>
+        <v>32165</v>
       </c>
       <c r="E160" s="4">
-        <v>142139</v>
+        <v>142227</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3777,16 +3777,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>4042</v>
+        <v>4048</v>
       </c>
       <c r="C161" s="4">
         <v>97</v>
       </c>
       <c r="D161" s="4">
-        <v>4995</v>
+        <v>4999</v>
       </c>
       <c r="E161" s="4">
-        <v>9134</v>
+        <v>9144</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3794,16 +3794,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>461397</v>
+        <v>461795</v>
       </c>
       <c r="C162" s="4">
-        <v>13939</v>
+        <v>14012</v>
       </c>
       <c r="D162" s="4">
-        <v>178085</v>
+        <v>178334</v>
       </c>
       <c r="E162" s="4">
-        <v>653421</v>
+        <v>654141</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3828,16 +3828,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>57264</v>
+        <v>57340</v>
       </c>
       <c r="C164" s="4">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="D164" s="4">
-        <v>18097</v>
+        <v>18113</v>
       </c>
       <c r="E164" s="4">
-        <v>77199</v>
+        <v>77299</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3862,16 +3862,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>91115</v>
+        <v>91194</v>
       </c>
       <c r="C166" s="4">
-        <v>12597</v>
+        <v>12625</v>
       </c>
       <c r="D166" s="4">
-        <v>98386</v>
+        <v>98556</v>
       </c>
       <c r="E166" s="4">
-        <v>202098</v>
+        <v>202375</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3879,16 +3879,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>28349</v>
+        <v>28374</v>
       </c>
       <c r="C167" s="4">
-        <v>1426</v>
+        <v>1430</v>
       </c>
       <c r="D167" s="4">
-        <v>16159</v>
+        <v>16177</v>
       </c>
       <c r="E167" s="4">
-        <v>45934</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3896,16 +3896,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>10116</v>
+        <v>10119</v>
       </c>
       <c r="C168" s="4">
         <v>147</v>
       </c>
       <c r="D168" s="4">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="E168" s="4">
-        <v>13346</v>
+        <v>13350</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3913,16 +3913,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>9156</v>
+        <v>9157</v>
       </c>
       <c r="C169" s="4">
         <v>89</v>
       </c>
       <c r="D169" s="4">
-        <v>8411</v>
+        <v>8414</v>
       </c>
       <c r="E169" s="4">
-        <v>17656</v>
+        <v>17660</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3930,16 +3930,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>20929</v>
+        <v>20934</v>
       </c>
       <c r="C170" s="4">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="D170" s="4">
-        <v>12245</v>
+        <v>12253</v>
       </c>
       <c r="E170" s="4">
-        <v>34547</v>
+        <v>34562</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3947,16 +3947,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>803491</v>
+        <v>804424</v>
       </c>
       <c r="C171" s="4">
-        <v>50661</v>
+        <v>50752</v>
       </c>
       <c r="D171" s="4">
-        <v>183131</v>
+        <v>183657</v>
       </c>
       <c r="E171" s="4">
-        <v>1037283</v>
+        <v>1038833</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3964,16 +3964,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>12441</v>
+        <v>12513</v>
       </c>
       <c r="C172" s="4">
         <v>1264</v>
       </c>
       <c r="D172" s="4">
-        <v>8531</v>
+        <v>8576</v>
       </c>
       <c r="E172" s="4">
-        <v>22236</v>
+        <v>22353</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3981,16 +3981,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>10661</v>
+        <v>10678</v>
       </c>
       <c r="C173" s="4">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D173" s="4">
-        <v>9516</v>
+        <v>9522</v>
       </c>
       <c r="E173" s="4">
-        <v>21014</v>
+        <v>21038</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3998,7 +3998,7 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C174" s="4">
         <v>20</v>
@@ -4007,7 +4007,7 @@
         <v>582</v>
       </c>
       <c r="E174" s="4">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4015,16 +4015,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>72625</v>
+        <v>72725</v>
       </c>
       <c r="C175" s="4">
-        <v>4686</v>
+        <v>4700</v>
       </c>
       <c r="D175" s="4">
-        <v>25105</v>
+        <v>25133</v>
       </c>
       <c r="E175" s="4">
-        <v>102416</v>
+        <v>102558</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4032,16 +4032,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>45239</v>
+        <v>45272</v>
       </c>
       <c r="C176" s="4">
-        <v>2159</v>
+        <v>2164</v>
       </c>
       <c r="D176" s="4">
-        <v>40952</v>
+        <v>41033</v>
       </c>
       <c r="E176" s="4">
-        <v>88350</v>
+        <v>88469</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4049,16 +4049,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>8003</v>
+        <v>8009</v>
       </c>
       <c r="C177" s="4">
         <v>968</v>
       </c>
       <c r="D177" s="4">
-        <v>6617</v>
+        <v>6622</v>
       </c>
       <c r="E177" s="4">
-        <v>15588</v>
+        <v>15599</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4066,16 +4066,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>10920</v>
+        <v>10923</v>
       </c>
       <c r="C178" s="4">
         <v>239</v>
       </c>
       <c r="D178" s="4">
-        <v>9759</v>
+        <v>9763</v>
       </c>
       <c r="E178" s="4">
-        <v>20918</v>
+        <v>20925</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4083,16 +4083,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>415886</v>
+        <v>416246</v>
       </c>
       <c r="C179" s="4">
-        <v>54384</v>
+        <v>54447</v>
       </c>
       <c r="D179" s="4">
-        <v>209062</v>
+        <v>209861</v>
       </c>
       <c r="E179" s="4">
-        <v>679332</v>
+        <v>680554</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4100,16 +4100,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="C180" s="4">
         <v>470</v>
       </c>
       <c r="D180" s="4">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="E180" s="4">
-        <v>4295</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4117,16 +4117,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="C181" s="4">
         <v>431</v>
       </c>
       <c r="D181" s="4">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="E181" s="4">
-        <v>3143</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4134,16 +4134,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>61893</v>
+        <v>61930</v>
       </c>
       <c r="C182" s="4">
-        <v>7416</v>
+        <v>7427</v>
       </c>
       <c r="D182" s="4">
-        <v>37972</v>
+        <v>38015</v>
       </c>
       <c r="E182" s="4">
-        <v>107281</v>
+        <v>107372</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4151,16 +4151,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>28986</v>
+        <v>29003</v>
       </c>
       <c r="C183" s="4">
         <v>1155</v>
       </c>
       <c r="D183" s="4">
-        <v>14628</v>
+        <v>14629</v>
       </c>
       <c r="E183" s="4">
-        <v>44769</v>
+        <v>44787</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4168,16 +4168,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>16609</v>
+        <v>16654</v>
       </c>
       <c r="C184" s="4">
         <v>1371</v>
       </c>
       <c r="D184" s="4">
-        <v>12299</v>
+        <v>12315</v>
       </c>
       <c r="E184" s="4">
-        <v>30279</v>
+        <v>30340</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4185,16 +4185,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>154930</v>
+        <v>155069</v>
       </c>
       <c r="C185" s="4">
-        <v>8311</v>
+        <v>8321</v>
       </c>
       <c r="D185" s="4">
-        <v>47874</v>
+        <v>47929</v>
       </c>
       <c r="E185" s="4">
-        <v>211115</v>
+        <v>211319</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4202,16 +4202,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>3768</v>
+        <v>3772</v>
       </c>
       <c r="C186" s="4">
         <v>387</v>
       </c>
       <c r="D186" s="4">
-        <v>4633</v>
+        <v>4638</v>
       </c>
       <c r="E186" s="4">
-        <v>8788</v>
+        <v>8797</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4219,16 +4219,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>15411</v>
+        <v>15413</v>
       </c>
       <c r="C187" s="4">
         <v>180</v>
       </c>
       <c r="D187" s="4">
-        <v>6239</v>
+        <v>6242</v>
       </c>
       <c r="E187" s="4">
-        <v>21830</v>
+        <v>21835</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4236,16 +4236,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>63296</v>
+        <v>63375</v>
       </c>
       <c r="C188" s="4">
-        <v>3049</v>
+        <v>3062</v>
       </c>
       <c r="D188" s="4">
-        <v>25968</v>
+        <v>26157</v>
       </c>
       <c r="E188" s="4">
-        <v>92313</v>
+        <v>92594</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4253,16 +4253,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>127716</v>
+        <v>127868</v>
       </c>
       <c r="C189" s="4">
-        <v>10397</v>
+        <v>10409</v>
       </c>
       <c r="D189" s="4">
-        <v>56950</v>
+        <v>57000</v>
       </c>
       <c r="E189" s="4">
-        <v>195063</v>
+        <v>195277</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4270,7 +4270,7 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>8177</v>
+        <v>8181</v>
       </c>
       <c r="C190" s="4">
         <v>65</v>
@@ -4279,7 +4279,7 @@
         <v>2446</v>
       </c>
       <c r="E190" s="4">
-        <v>10688</v>
+        <v>10692</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4287,16 +4287,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>6572</v>
+        <v>6580</v>
       </c>
       <c r="C191" s="4">
         <v>504</v>
       </c>
       <c r="D191" s="4">
-        <v>4112</v>
+        <v>4120</v>
       </c>
       <c r="E191" s="4">
-        <v>11188</v>
+        <v>11204</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4304,16 +4304,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>96934</v>
+        <v>97040</v>
       </c>
       <c r="C192" s="4">
-        <v>21247</v>
+        <v>21267</v>
       </c>
       <c r="D192" s="4">
-        <v>49787</v>
+        <v>49916</v>
       </c>
       <c r="E192" s="4">
-        <v>167968</v>
+        <v>168223</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4327,10 +4327,10 @@
         <v>49</v>
       </c>
       <c r="D193" s="4">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="E193" s="4">
-        <v>2901</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4338,16 +4338,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>3062</v>
+        <v>3065</v>
       </c>
       <c r="C194" s="4">
         <v>138</v>
       </c>
       <c r="D194" s="4">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="E194" s="4">
-        <v>5136</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4355,16 +4355,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>9130</v>
+        <v>9140</v>
       </c>
       <c r="C195" s="4">
         <v>783</v>
       </c>
       <c r="D195" s="4">
-        <v>10850</v>
+        <v>10883</v>
       </c>
       <c r="E195" s="4">
-        <v>20763</v>
+        <v>20806</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4372,16 +4372,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>14513</v>
+        <v>14531</v>
       </c>
       <c r="C196" s="4">
         <v>564</v>
       </c>
       <c r="D196" s="4">
-        <v>101470</v>
+        <v>101548</v>
       </c>
       <c r="E196" s="4">
-        <v>116547</v>
+        <v>116643</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4389,16 +4389,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>6564</v>
+        <v>6573</v>
       </c>
       <c r="C197" s="4">
         <v>550</v>
       </c>
       <c r="D197" s="4">
-        <v>10295</v>
+        <v>10309</v>
       </c>
       <c r="E197" s="4">
-        <v>17409</v>
+        <v>17432</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4406,7 +4406,7 @@
         <v>201</v>
       </c>
       <c r="B198" s="4">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C198" s="4">
         <v>128</v>
@@ -4415,7 +4415,7 @@
         <v>130</v>
       </c>
       <c r="E198" s="4">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4423,16 +4423,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>21473</v>
+        <v>21493</v>
       </c>
       <c r="C199" s="4">
         <v>593</v>
       </c>
       <c r="D199" s="4">
-        <v>15472</v>
+        <v>15478</v>
       </c>
       <c r="E199" s="4">
-        <v>37538</v>
+        <v>37564</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4440,16 +4440,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>126776</v>
+        <v>126887</v>
       </c>
       <c r="C200" s="4">
-        <v>8543</v>
+        <v>8571</v>
       </c>
       <c r="D200" s="4">
-        <v>25646</v>
+        <v>25700</v>
       </c>
       <c r="E200" s="4">
-        <v>160965</v>
+        <v>161158</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4457,16 +4457,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>8615</v>
+        <v>8617</v>
       </c>
       <c r="C201" s="4">
         <v>255</v>
       </c>
       <c r="D201" s="4">
-        <v>9951</v>
+        <v>9954</v>
       </c>
       <c r="E201" s="4">
-        <v>18821</v>
+        <v>18826</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4474,16 +4474,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>38897</v>
+        <v>38917</v>
       </c>
       <c r="C202" s="4">
-        <v>2564</v>
+        <v>2572</v>
       </c>
       <c r="D202" s="4">
-        <v>12582</v>
+        <v>12608</v>
       </c>
       <c r="E202" s="4">
-        <v>54043</v>
+        <v>54097</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4491,16 +4491,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>12245</v>
+        <v>12249</v>
       </c>
       <c r="C203" s="4">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D203" s="4">
-        <v>5490</v>
+        <v>5493</v>
       </c>
       <c r="E203" s="4">
-        <v>18508</v>
+        <v>18519</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4508,16 +4508,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>11690</v>
+        <v>11697</v>
       </c>
       <c r="C204" s="4">
         <v>300</v>
       </c>
       <c r="D204" s="4">
-        <v>10979</v>
+        <v>10984</v>
       </c>
       <c r="E204" s="4">
-        <v>22969</v>
+        <v>22981</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4525,16 +4525,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>35672</v>
+        <v>35713</v>
       </c>
       <c r="C205" s="4">
         <v>2547</v>
       </c>
       <c r="D205" s="4">
-        <v>12091</v>
+        <v>12106</v>
       </c>
       <c r="E205" s="4">
-        <v>50310</v>
+        <v>50366</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4542,16 +4542,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>64267</v>
+        <v>64353</v>
       </c>
       <c r="C206" s="4">
-        <v>10240</v>
+        <v>10250</v>
       </c>
       <c r="D206" s="4">
-        <v>52862</v>
+        <v>52908</v>
       </c>
       <c r="E206" s="4">
-        <v>127369</v>
+        <v>127511</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4559,16 +4559,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5895</v>
+        <v>5900</v>
       </c>
       <c r="C207" s="4">
         <v>146</v>
       </c>
       <c r="D207" s="4">
-        <v>4827</v>
+        <v>4830</v>
       </c>
       <c r="E207" s="4">
-        <v>10868</v>
+        <v>10876</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4582,10 +4582,10 @@
         <v>25</v>
       </c>
       <c r="D208" s="4">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="E208" s="4">
-        <v>2472</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4593,16 +4593,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>32193</v>
+        <v>32210</v>
       </c>
       <c r="C209" s="4">
         <v>361</v>
       </c>
       <c r="D209" s="4">
-        <v>6208</v>
+        <v>6217</v>
       </c>
       <c r="E209" s="4">
-        <v>38762</v>
+        <v>38788</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4613,13 +4613,13 @@
         <v>1156</v>
       </c>
       <c r="C210" s="4">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D210" s="4">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="E210" s="4">
-        <v>2815</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4627,16 +4627,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>24602</v>
+        <v>24628</v>
       </c>
       <c r="C211" s="4">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="D211" s="4">
-        <v>12490</v>
+        <v>12497</v>
       </c>
       <c r="E211" s="4">
-        <v>38610</v>
+        <v>38646</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4644,16 +4644,16 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C212" s="4">
         <v>186</v>
       </c>
       <c r="D212" s="4">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E212" s="4">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4661,16 +4661,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>329604</v>
+        <v>329808</v>
       </c>
       <c r="C213" s="4">
-        <v>16292</v>
+        <v>16414</v>
       </c>
       <c r="D213" s="4">
-        <v>121234</v>
+        <v>121444</v>
       </c>
       <c r="E213" s="4">
-        <v>467130</v>
+        <v>467666</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4678,16 +4678,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>10277</v>
+        <v>10284</v>
       </c>
       <c r="C214" s="4">
         <v>462</v>
       </c>
       <c r="D214" s="4">
-        <v>9210</v>
+        <v>9213</v>
       </c>
       <c r="E214" s="4">
-        <v>19949</v>
+        <v>19959</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4695,16 +4695,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>94538</v>
+        <v>94624</v>
       </c>
       <c r="C215" s="4">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D215" s="4">
-        <v>41434</v>
+        <v>41453</v>
       </c>
       <c r="E215" s="4">
-        <v>136927</v>
+        <v>137033</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4712,16 +4712,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>6678</v>
+        <v>6682</v>
       </c>
       <c r="C216" s="4">
         <v>179</v>
       </c>
       <c r="D216" s="4">
-        <v>8168</v>
+        <v>8173</v>
       </c>
       <c r="E216" s="4">
-        <v>15025</v>
+        <v>15034</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4729,7 +4729,7 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C217" s="4">
         <v>26</v>
@@ -4738,7 +4738,7 @@
         <v>1181</v>
       </c>
       <c r="E217" s="4">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4752,10 +4752,10 @@
         <v>10</v>
       </c>
       <c r="D218" s="4">
-        <v>2217</v>
+        <v>2226</v>
       </c>
       <c r="E218" s="4">
-        <v>2443</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4763,16 +4763,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="C219" s="4">
         <v>50</v>
       </c>
       <c r="D219" s="4">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="E219" s="4">
-        <v>3392</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4780,16 +4780,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>8938</v>
+        <v>8946</v>
       </c>
       <c r="C220" s="4">
         <v>472</v>
       </c>
       <c r="D220" s="4">
-        <v>2657</v>
+        <v>2660</v>
       </c>
       <c r="E220" s="4">
-        <v>12067</v>
+        <v>12078</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4797,16 +4797,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>3195482</v>
+        <v>3198174</v>
       </c>
       <c r="C221" s="4">
-        <v>122104</v>
+        <v>122327</v>
       </c>
       <c r="D221" s="4">
-        <v>724439</v>
+        <v>725789</v>
       </c>
       <c r="E221" s="4">
-        <v>4042025</v>
+        <v>4046290</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4814,16 +4814,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>126202</v>
+        <v>126327</v>
       </c>
       <c r="C222" s="4">
-        <v>4863</v>
+        <v>4878</v>
       </c>
       <c r="D222" s="4">
-        <v>174549</v>
+        <v>174697</v>
       </c>
       <c r="E222" s="4">
-        <v>305614</v>
+        <v>305902</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4837,10 +4837,10 @@
         <v>12</v>
       </c>
       <c r="D223" s="4">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E223" s="4">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4848,16 +4848,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>6293</v>
+        <v>6297</v>
       </c>
       <c r="C224" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D224" s="4">
-        <v>4943</v>
+        <v>4950</v>
       </c>
       <c r="E224" s="4">
-        <v>11380</v>
+        <v>11392</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4882,16 +4882,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>37821</v>
+        <v>37892</v>
       </c>
       <c r="C226" s="4">
         <v>1531</v>
       </c>
       <c r="D226" s="4">
-        <v>12068</v>
+        <v>12084</v>
       </c>
       <c r="E226" s="4">
-        <v>51420</v>
+        <v>51507</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4899,16 +4899,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>108805</v>
+        <v>108871</v>
       </c>
       <c r="C227" s="4">
-        <v>3413</v>
+        <v>3418</v>
       </c>
       <c r="D227" s="4">
-        <v>163723</v>
+        <v>163973</v>
       </c>
       <c r="E227" s="4">
-        <v>275941</v>
+        <v>276262</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4916,16 +4916,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>2162575</v>
+        <v>2164480</v>
       </c>
       <c r="C228" s="4">
-        <v>94990</v>
+        <v>95636</v>
       </c>
       <c r="D228" s="4">
-        <v>547337</v>
+        <v>547922</v>
       </c>
       <c r="E228" s="4">
-        <v>2804902</v>
+        <v>2808038</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4933,16 +4933,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>19770</v>
+        <v>19787</v>
       </c>
       <c r="C229" s="4">
         <v>637</v>
       </c>
       <c r="D229" s="4">
-        <v>9760</v>
+        <v>9776</v>
       </c>
       <c r="E229" s="4">
-        <v>30167</v>
+        <v>30200</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4950,16 +4950,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>17992</v>
+        <v>18000</v>
       </c>
       <c r="C230" s="4">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D230" s="4">
-        <v>12820</v>
+        <v>12841</v>
       </c>
       <c r="E230" s="4">
-        <v>31956</v>
+        <v>31986</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4967,16 +4967,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>17879</v>
+        <v>17899</v>
       </c>
       <c r="C231" s="4">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="D231" s="4">
-        <v>11522</v>
+        <v>11532</v>
       </c>
       <c r="E231" s="4">
-        <v>32017</v>
+        <v>32049</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4984,16 +4984,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="C232" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D232" s="4">
-        <v>4813</v>
+        <v>4828</v>
       </c>
       <c r="E232" s="4">
-        <v>6277</v>
+        <v>6295</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -5001,16 +5001,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>52092</v>
+        <v>52145</v>
       </c>
       <c r="C233" s="4">
         <v>642</v>
       </c>
       <c r="D233" s="4">
-        <v>7391</v>
+        <v>7416</v>
       </c>
       <c r="E233" s="4">
-        <v>60125</v>
+        <v>60203</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5018,16 +5018,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>75381</v>
+        <v>75435</v>
       </c>
       <c r="C234" s="4">
         <v>1367</v>
       </c>
       <c r="D234" s="4">
-        <v>38441</v>
+        <v>38462</v>
       </c>
       <c r="E234" s="4">
-        <v>115189</v>
+        <v>115264</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5035,16 +5035,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>38199</v>
+        <v>38244</v>
       </c>
       <c r="C235" s="4">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="D235" s="4">
-        <v>25456</v>
+        <v>25498</v>
       </c>
       <c r="E235" s="4">
-        <v>66199</v>
+        <v>66288</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5052,16 +5052,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>84119</v>
+        <v>84209</v>
       </c>
       <c r="C236" s="4">
-        <v>6277</v>
+        <v>6355</v>
       </c>
       <c r="D236" s="4">
-        <v>37629</v>
+        <v>37673</v>
       </c>
       <c r="E236" s="4">
-        <v>128025</v>
+        <v>128237</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5069,16 +5069,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>186413</v>
+        <v>186580</v>
       </c>
       <c r="C237" s="4">
-        <v>3422</v>
+        <v>3424</v>
       </c>
       <c r="D237" s="4">
-        <v>53870</v>
+        <v>53884</v>
       </c>
       <c r="E237" s="4">
-        <v>243705</v>
+        <v>243888</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5086,16 +5086,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>71264</v>
+        <v>71358</v>
       </c>
       <c r="C238" s="4">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="D238" s="4">
-        <v>13914</v>
+        <v>13934</v>
       </c>
       <c r="E238" s="4">
-        <v>87627</v>
+        <v>87742</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5103,16 +5103,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>6631</v>
+        <v>6633</v>
       </c>
       <c r="C239" s="4">
         <v>244</v>
       </c>
       <c r="D239" s="4">
-        <v>3715</v>
+        <v>3717</v>
       </c>
       <c r="E239" s="4">
-        <v>10590</v>
+        <v>10594</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5120,16 +5120,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>61617</v>
+        <v>61683</v>
       </c>
       <c r="C240" s="4">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="D240" s="4">
-        <v>33661</v>
+        <v>33707</v>
       </c>
       <c r="E240" s="4">
-        <v>97427</v>
+        <v>97541</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5137,16 +5137,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>640682</v>
+        <v>641272</v>
       </c>
       <c r="C241" s="4">
-        <v>7259</v>
+        <v>7270</v>
       </c>
       <c r="D241" s="4">
-        <v>176902</v>
+        <v>177320</v>
       </c>
       <c r="E241" s="4">
-        <v>824843</v>
+        <v>825862</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5154,16 +5154,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>54405</v>
+        <v>54643</v>
       </c>
       <c r="C242" s="4">
-        <v>2706</v>
+        <v>2711</v>
       </c>
       <c r="D242" s="4">
-        <v>19773</v>
+        <v>19791</v>
       </c>
       <c r="E242" s="4">
-        <v>76884</v>
+        <v>77145</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5171,16 +5171,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="C243" s="4">
         <v>536</v>
       </c>
       <c r="D243" s="4">
-        <v>5678</v>
+        <v>5679</v>
       </c>
       <c r="E243" s="4">
-        <v>8956</v>
+        <v>8958</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5188,16 +5188,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>174165</v>
+        <v>174290</v>
       </c>
       <c r="C244" s="4">
-        <v>12548</v>
+        <v>12640</v>
       </c>
       <c r="D244" s="4">
-        <v>93281</v>
+        <v>93307</v>
       </c>
       <c r="E244" s="4">
-        <v>279994</v>
+        <v>280237</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5205,16 +5205,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>20335</v>
+        <v>20352</v>
       </c>
       <c r="C245" s="4">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D245" s="4">
         <v>40723</v>
       </c>
       <c r="E245" s="4">
-        <v>61923</v>
+        <v>61943</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5222,16 +5222,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>58193</v>
+        <v>58230</v>
       </c>
       <c r="C246" s="4">
         <v>262</v>
       </c>
       <c r="D246" s="4">
-        <v>11507</v>
+        <v>11517</v>
       </c>
       <c r="E246" s="4">
-        <v>69962</v>
+        <v>70009</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5239,16 +5239,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>954532</v>
+        <v>955547</v>
       </c>
       <c r="C247" s="4">
-        <v>42731</v>
+        <v>43155</v>
       </c>
       <c r="D247" s="4">
-        <v>255902</v>
+        <v>256315</v>
       </c>
       <c r="E247" s="4">
-        <v>1253165</v>
+        <v>1255017</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5256,16 +5256,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>60082</v>
+        <v>60162</v>
       </c>
       <c r="C248" s="4">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="D248" s="4">
-        <v>29970</v>
+        <v>30012</v>
       </c>
       <c r="E248" s="4">
-        <v>91774</v>
+        <v>91899</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5273,16 +5273,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="C249" s="4">
         <v>75</v>
       </c>
       <c r="D249" s="4">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E249" s="4">
-        <v>3325</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5290,16 +5290,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>85250</v>
+        <v>85321</v>
       </c>
       <c r="C250" s="4">
-        <v>4268</v>
+        <v>4271</v>
       </c>
       <c r="D250" s="4">
-        <v>20810</v>
+        <v>20836</v>
       </c>
       <c r="E250" s="4">
-        <v>110328</v>
+        <v>110428</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5307,16 +5307,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>33437</v>
+        <v>33475</v>
       </c>
       <c r="C251" s="4">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="D251" s="4">
-        <v>23149</v>
+        <v>23170</v>
       </c>
       <c r="E251" s="4">
-        <v>59118</v>
+        <v>59179</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5324,16 +5324,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>3198</v>
+        <v>3201</v>
       </c>
       <c r="C252" s="4">
         <v>175</v>
       </c>
       <c r="D252" s="4">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="E252" s="4">
-        <v>6102</v>
+        <v>6106</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5341,16 +5341,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>12875</v>
+        <v>12888</v>
       </c>
       <c r="C253" s="4">
         <v>729</v>
       </c>
       <c r="D253" s="4">
-        <v>8190</v>
+        <v>8216</v>
       </c>
       <c r="E253" s="4">
-        <v>21794</v>
+        <v>21833</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5358,16 +5358,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>20614</v>
+        <v>20703</v>
       </c>
       <c r="C254" s="4">
         <v>176</v>
       </c>
       <c r="D254" s="4">
-        <v>20417</v>
+        <v>20424</v>
       </c>
       <c r="E254" s="4">
-        <v>41207</v>
+        <v>41303</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5375,16 +5375,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>16982</v>
+        <v>16998</v>
       </c>
       <c r="C255" s="4">
         <v>271</v>
       </c>
       <c r="D255" s="4">
-        <v>3989</v>
+        <v>3997</v>
       </c>
       <c r="E255" s="4">
-        <v>21242</v>
+        <v>21266</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5392,16 +5392,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>470979</v>
+        <v>476606</v>
       </c>
       <c r="C256" s="4">
-        <v>14577</v>
+        <v>14578</v>
       </c>
       <c r="D256" s="4">
-        <v>19583</v>
+        <v>19619</v>
       </c>
       <c r="E256" s="4">
-        <v>505139</v>
+        <v>510803</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5409,16 +5409,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>46146435</v>
+        <v>46202959</v>
       </c>
       <c r="C257" s="4">
-        <v>1840933</v>
+        <v>1845418</v>
       </c>
       <c r="D257" s="4">
-        <v>12489854</v>
+        <v>12508340</v>
       </c>
       <c r="E257" s="4">
-        <v>60477222</v>
+        <v>60556717</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
